--- a/techniqo/data_new_ticker/RBLBANK.xlsx
+++ b/techniqo/data_new_ticker/RBLBANK.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1000"/>
+  <dimension ref="A1:G1002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35386,6 +35386,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="1001">
+      <c r="A1001" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B1001" t="n">
+        <v>182</v>
+      </c>
+      <c r="C1001" t="n">
+        <v>184.65</v>
+      </c>
+      <c r="D1001" t="n">
+        <v>179.5</v>
+      </c>
+      <c r="E1001" t="n">
+        <v>183.95</v>
+      </c>
+      <c r="F1001" t="n">
+        <v>15340948</v>
+      </c>
+      <c r="G1001" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B1002" t="n">
+        <v>184</v>
+      </c>
+      <c r="C1002" t="n">
+        <v>187.15</v>
+      </c>
+      <c r="D1002" t="n">
+        <v>182.15</v>
+      </c>
+      <c r="E1002" t="n">
+        <v>185.7</v>
+      </c>
+      <c r="F1002" t="n">
+        <v>12867680</v>
+      </c>
+      <c r="G1002" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/RBLBANK.xlsx
+++ b/techniqo/data_new_ticker/RBLBANK.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1002"/>
+  <dimension ref="A1:G1004"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35436,6 +35436,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="1003">
+      <c r="A1003" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B1003" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="C1003" t="n">
+        <v>185.3</v>
+      </c>
+      <c r="D1003" t="n">
+        <v>182.5</v>
+      </c>
+      <c r="E1003" t="n">
+        <v>183.65</v>
+      </c>
+      <c r="F1003" t="n">
+        <v>9493842</v>
+      </c>
+      <c r="G1003" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B1004" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="C1004" t="n">
+        <v>185.4</v>
+      </c>
+      <c r="D1004" t="n">
+        <v>177.35</v>
+      </c>
+      <c r="E1004" t="n">
+        <v>180.65</v>
+      </c>
+      <c r="F1004" t="n">
+        <v>11112774</v>
+      </c>
+      <c r="G1004" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
